--- a/data-raw/ITNS-Ch07-Excercises data - two groups-gdcsmall.xlsx
+++ b/data-raw/ITNS-Ch07-Excercises data - two groups-gdcsmall.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="anchor_adjust Ex 3" sheetId="1" r:id="rId1"/>
-    <sheet name="clean_and_moral Ex 4" sheetId="5" r:id="rId2"/>
-    <sheet name="gender_math_IAT Ex 5" sheetId="4" r:id="rId3"/>
+    <sheet name="anchor_estimate" sheetId="1" r:id="rId1"/>
+    <sheet name="clean_moral" sheetId="5" r:id="rId2"/>
+    <sheet name="math_gender_IAT" sheetId="4" r:id="rId3"/>
     <sheet name="superstition_golf Ex 6 7" sheetId="12" r:id="rId4"/>
     <sheet name="flag_priming" sheetId="13" r:id="rId5"/>
     <sheet name="Carpenter1" sheetId="14" r:id="rId6"/>
     <sheet name="Carpenter2" sheetId="15" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'anchor_adjust Ex 3'!$A$1:$H$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'clean_and_moral Ex 4'!$E$2:$G$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">anchor_estimate!$A$1:$H$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">clean_moral!$E$2:$G$210</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">flag_priming!$A$1:$E$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'gender_math_IAT Ex 5'!$F$1:$I$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">math_gender_IAT!$F$1:$I$156</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'superstition_golf Ex 6 7'!$A$1:$G$112</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -536,8 +536,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,6 +713,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4446,22 +4451,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
@@ -4474,7 +4479,7 @@
     <col min="9" max="16" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4511,12 +4516,12 @@
         <v>147</v>
       </c>
       <c r="O1" s="7"/>
-      <c r="AC1" t="e">
-        <f ca="1">_xlfn.T.INV.2T(0.05,40)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AC1">
+        <f>_xlfn.T.INV.2T(0.05,40)</f>
+        <v>2.0210753903062737</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2409609</v>
       </c>
@@ -4554,7 +4559,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2442646</v>
       </c>
@@ -4595,7 +4600,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2442662</v>
       </c>
@@ -4639,7 +4644,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2442673</v>
       </c>
@@ -4683,7 +4688,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2442680</v>
       </c>
@@ -4727,7 +4732,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2442692</v>
       </c>
@@ -4771,7 +4776,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2442700</v>
       </c>
@@ -4815,7 +4820,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2442711</v>
       </c>
@@ -4859,7 +4864,7 @@
         <v>38485</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2442718</v>
       </c>
@@ -4903,7 +4908,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2442903</v>
       </c>
@@ -4944,7 +4949,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2442906</v>
       </c>
@@ -4988,7 +4993,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2442910</v>
       </c>
@@ -5032,7 +5037,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2443194</v>
       </c>
@@ -5076,7 +5081,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2443210</v>
       </c>
@@ -5120,7 +5125,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2443211</v>
       </c>
@@ -5158,7 +5163,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2443215</v>
       </c>
@@ -5199,7 +5204,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2443407</v>
       </c>
@@ -5243,7 +5248,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2443413</v>
       </c>
@@ -5284,7 +5289,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2443419</v>
       </c>
@@ -5328,7 +5333,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2451795</v>
       </c>
@@ -5372,7 +5377,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2451900</v>
       </c>
@@ -5416,7 +5421,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2451905</v>
       </c>
@@ -5460,7 +5465,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2451911</v>
       </c>
@@ -5504,7 +5509,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2451919</v>
       </c>
@@ -5548,7 +5553,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2451922</v>
       </c>
@@ -5589,7 +5594,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2451925</v>
       </c>
@@ -5633,7 +5638,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2451932</v>
       </c>
@@ -5677,7 +5682,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2453957</v>
       </c>
@@ -5721,7 +5726,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2453961</v>
       </c>
@@ -5765,7 +5770,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2454068</v>
       </c>
@@ -5809,7 +5814,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2454073</v>
       </c>
@@ -5850,7 +5855,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2454074</v>
       </c>
@@ -5891,7 +5896,7 @@
         <v>26580</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2454076</v>
       </c>
@@ -5932,7 +5937,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2454080</v>
       </c>
@@ -5976,7 +5981,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2454084</v>
       </c>
@@ -6017,7 +6022,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2454086</v>
       </c>
@@ -6058,7 +6063,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2454088</v>
       </c>
@@ -6096,7 +6101,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2454089</v>
       </c>
@@ -6128,7 +6133,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2454090</v>
       </c>
@@ -6163,7 +6168,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2454460</v>
       </c>
@@ -6192,7 +6197,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2454461</v>
       </c>
@@ -6227,7 +6232,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2454494</v>
       </c>
@@ -6259,7 +6264,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2454600</v>
       </c>
@@ -6291,7 +6296,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2456447</v>
       </c>
@@ -6320,7 +6325,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2456450</v>
       </c>
@@ -6349,7 +6354,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2456456</v>
       </c>
@@ -6372,7 +6377,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2456459</v>
       </c>
@@ -6395,7 +6400,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2456460</v>
       </c>
@@ -6421,7 +6426,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2456463</v>
       </c>
@@ -6447,7 +6452,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2456625</v>
       </c>
@@ -6467,7 +6472,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2456811</v>
       </c>
@@ -6490,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2456933</v>
       </c>
@@ -6516,7 +6521,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2456936</v>
       </c>
@@ -6542,7 +6547,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2465685</v>
       </c>
@@ -6565,7 +6570,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2465686</v>
       </c>
@@ -6591,7 +6596,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2465689</v>
       </c>
@@ -6617,7 +6622,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2465799</v>
       </c>
@@ -6643,7 +6648,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2465800</v>
       </c>
@@ -6669,7 +6674,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2465802</v>
       </c>
@@ -6695,7 +6700,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2465803</v>
       </c>
@@ -6718,7 +6723,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2465808</v>
       </c>
@@ -6744,7 +6749,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2467455</v>
       </c>
@@ -6767,7 +6772,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2467466</v>
       </c>
@@ -6793,7 +6798,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2467471</v>
       </c>
@@ -6819,7 +6824,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2467477</v>
       </c>
@@ -6842,7 +6847,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2467622</v>
       </c>
@@ -6868,7 +6873,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2467625</v>
       </c>
@@ -6894,7 +6899,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2467630</v>
       </c>
@@ -6917,7 +6922,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2467632</v>
       </c>
@@ -6943,7 +6948,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2467930</v>
       </c>
@@ -6969,7 +6974,7 @@
         <v>26580</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2467935</v>
       </c>
@@ -6995,7 +7000,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2467937</v>
       </c>
@@ -7021,7 +7026,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2468023</v>
       </c>
@@ -7047,7 +7052,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2468025</v>
       </c>
@@ -7070,7 +7075,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2469961</v>
       </c>
@@ -7096,7 +7101,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2470134</v>
       </c>
@@ -7122,7 +7127,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2470138</v>
       </c>
@@ -7148,7 +7153,7 @@
         <v>5867</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2470304</v>
       </c>
@@ -7174,7 +7179,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2470307</v>
       </c>
@@ -7197,7 +7202,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2470311</v>
       </c>
@@ -7223,7 +7228,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2477383</v>
       </c>
@@ -7249,7 +7254,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2477497</v>
       </c>
@@ -7275,7 +7280,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2477498</v>
       </c>
@@ -7295,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2477501</v>
       </c>
@@ -7318,7 +7323,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2477502</v>
       </c>
@@ -7344,7 +7349,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2477504</v>
       </c>
@@ -7367,7 +7372,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2477506</v>
       </c>
@@ -7393,7 +7398,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2477509</v>
       </c>
@@ -7419,7 +7424,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2477515</v>
       </c>
@@ -7442,7 +7447,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2477516</v>
       </c>
@@ -7468,7 +7473,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F92">
         <f>COUNT(F2:F91)</f>
         <v>80</v>
@@ -7482,7 +7487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L93">
         <f>COUNT(L3:L87)</f>
         <v>45</v>
@@ -7512,7 +7517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L211"/>
   <sheetViews>
@@ -7520,7 +7525,7 @@
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -7530,7 +7535,7 @@
     <col min="8" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -7546,7 +7551,7 @@
       </c>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -7578,7 +7583,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7610,7 +7615,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7642,7 +7647,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7674,7 +7679,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7706,7 +7711,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7738,7 +7743,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7770,7 +7775,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7802,7 +7807,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7834,7 +7839,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7866,7 +7871,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7898,7 +7903,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7930,7 +7935,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7962,7 +7967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -7994,7 +7999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8026,7 +8031,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8058,7 +8063,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8090,7 +8095,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8122,7 +8127,7 @@
         <v>5.83</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8154,7 +8159,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8186,7 +8191,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8218,7 +8223,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8244,7 +8249,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8270,7 +8275,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8296,7 +8301,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8322,7 +8327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8348,7 +8353,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8374,7 +8379,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8400,7 +8405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8426,7 +8431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8452,7 +8457,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8478,7 +8483,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8504,7 +8509,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -8530,7 +8535,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -8556,7 +8561,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -8582,7 +8587,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -8608,7 +8613,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -8634,7 +8639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -8660,7 +8665,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -8686,7 +8691,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -8712,7 +8717,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -8738,7 +8743,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E43">
         <v>50</v>
       </c>
@@ -8763,7 +8768,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E44">
         <v>51</v>
       </c>
@@ -8780,7 +8785,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E45">
         <v>52</v>
       </c>
@@ -8797,7 +8802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E46">
         <v>53</v>
       </c>
@@ -8814,7 +8819,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E47">
         <v>54</v>
       </c>
@@ -8831,7 +8836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>54</v>
       </c>
@@ -8848,7 +8853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="5:12">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>55</v>
       </c>
@@ -8865,7 +8870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="5:12">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50">
         <v>57</v>
       </c>
@@ -8882,7 +8887,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="51" spans="5:12">
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51">
         <v>58</v>
       </c>
@@ -8899,7 +8904,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="52" spans="5:12">
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>60</v>
       </c>
@@ -8916,7 +8921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="5:12">
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>61</v>
       </c>
@@ -8933,7 +8938,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="54" spans="5:12">
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E54">
         <v>62</v>
       </c>
@@ -8950,7 +8955,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="55" spans="5:12">
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E55">
         <v>63</v>
       </c>
@@ -8967,7 +8972,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="56" spans="5:12">
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56">
         <v>65</v>
       </c>
@@ -8984,7 +8989,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="57" spans="5:12">
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E57">
         <v>66</v>
       </c>
@@ -9001,7 +9006,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="58" spans="5:12">
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E58">
         <v>67</v>
       </c>
@@ -9018,7 +9023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="5:12">
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E59">
         <v>68</v>
       </c>
@@ -9035,7 +9040,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="60" spans="5:12">
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60">
         <v>69</v>
       </c>
@@ -9052,7 +9057,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="61" spans="5:12">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61">
         <v>70</v>
       </c>
@@ -9069,7 +9074,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="62" spans="5:12">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62">
         <v>71</v>
       </c>
@@ -9086,7 +9091,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="63" spans="5:12">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E63">
         <v>72</v>
       </c>
@@ -9103,7 +9108,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="64" spans="5:12">
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64">
         <v>73</v>
       </c>
@@ -9120,7 +9125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="5:12">
+    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E65">
         <v>74</v>
       </c>
@@ -9137,7 +9142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="5:12">
+    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E66">
         <v>75</v>
       </c>
@@ -9154,7 +9159,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="67" spans="5:12">
+    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E67">
         <v>76</v>
       </c>
@@ -9171,7 +9176,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="68" spans="5:12">
+    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E68">
         <v>77</v>
       </c>
@@ -9188,7 +9193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="5:12">
+    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E69">
         <v>78</v>
       </c>
@@ -9205,7 +9210,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="70" spans="5:12">
+    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E70">
         <v>79</v>
       </c>
@@ -9222,7 +9227,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="71" spans="5:12">
+    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E71">
         <v>80</v>
       </c>
@@ -9239,7 +9244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="5:12">
+    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E72">
         <v>81</v>
       </c>
@@ -9256,7 +9261,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="73" spans="5:12">
+    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E73">
         <v>82</v>
       </c>
@@ -9273,7 +9278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="5:12">
+    <row r="74" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E74">
         <v>84</v>
       </c>
@@ -9290,7 +9295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="5:12">
+    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E75">
         <v>86</v>
       </c>
@@ -9307,7 +9312,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="76" spans="5:12">
+    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E76">
         <v>87</v>
       </c>
@@ -9324,7 +9329,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="77" spans="5:12">
+    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E77">
         <v>88</v>
       </c>
@@ -9341,7 +9346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="5:12">
+    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E78">
         <v>89</v>
       </c>
@@ -9358,7 +9363,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="79" spans="5:12">
+    <row r="79" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E79">
         <v>90</v>
       </c>
@@ -9375,7 +9380,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="80" spans="5:12">
+    <row r="80" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E80">
         <v>91</v>
       </c>
@@ -9392,7 +9397,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="81" spans="5:12">
+    <row r="81" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E81">
         <v>92</v>
       </c>
@@ -9409,7 +9414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="5:12">
+    <row r="82" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E82">
         <v>94</v>
       </c>
@@ -9426,7 +9431,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="83" spans="5:12">
+    <row r="83" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E83">
         <v>95</v>
       </c>
@@ -9443,7 +9448,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="84" spans="5:12">
+    <row r="84" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E84">
         <v>96</v>
       </c>
@@ -9460,7 +9465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="5:12">
+    <row r="85" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E85">
         <v>97</v>
       </c>
@@ -9477,7 +9482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="5:12">
+    <row r="86" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E86">
         <v>98</v>
       </c>
@@ -9494,7 +9499,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="87" spans="5:12">
+    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E87">
         <v>99</v>
       </c>
@@ -9511,7 +9516,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="88" spans="5:12">
+    <row r="88" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E88">
         <v>100</v>
       </c>
@@ -9528,7 +9533,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="89" spans="5:12">
+    <row r="89" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E89">
         <v>101</v>
       </c>
@@ -9545,7 +9550,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="90" spans="5:12">
+    <row r="90" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E90">
         <v>102</v>
       </c>
@@ -9562,7 +9567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="5:12">
+    <row r="91" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E91">
         <v>104</v>
       </c>
@@ -9579,7 +9584,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="92" spans="5:12">
+    <row r="92" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E92">
         <v>105</v>
       </c>
@@ -9596,7 +9601,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="93" spans="5:12">
+    <row r="93" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E93">
         <v>106</v>
       </c>
@@ -9613,7 +9618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="5:12">
+    <row r="94" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E94">
         <v>107</v>
       </c>
@@ -9630,7 +9635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="5:12">
+    <row r="95" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E95">
         <v>108</v>
       </c>
@@ -9647,7 +9652,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="96" spans="5:12">
+    <row r="96" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E96">
         <v>109</v>
       </c>
@@ -9664,7 +9669,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="97" spans="5:12">
+    <row r="97" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E97">
         <v>110</v>
       </c>
@@ -9681,7 +9686,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="98" spans="5:12">
+    <row r="98" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E98">
         <v>111</v>
       </c>
@@ -9698,7 +9703,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="99" spans="5:12">
+    <row r="99" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E99">
         <v>112</v>
       </c>
@@ -9715,7 +9720,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="100" spans="5:12">
+    <row r="100" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E100">
         <v>113</v>
       </c>
@@ -9732,7 +9737,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="101" spans="5:12">
+    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E101">
         <v>114</v>
       </c>
@@ -9749,7 +9754,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="102" spans="5:12">
+    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E102">
         <v>115</v>
       </c>
@@ -9766,7 +9771,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="103" spans="5:12">
+    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E103">
         <v>116</v>
       </c>
@@ -9783,7 +9788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="5:12">
+    <row r="104" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E104">
         <v>118</v>
       </c>
@@ -9800,7 +9805,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="105" spans="5:12">
+    <row r="105" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E105">
         <v>119</v>
       </c>
@@ -9814,7 +9819,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="106" spans="5:12">
+    <row r="106" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E106">
         <v>120</v>
       </c>
@@ -9828,7 +9833,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="107" spans="5:12">
+    <row r="107" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E107">
         <v>121</v>
       </c>
@@ -9842,7 +9847,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="108" spans="5:12">
+    <row r="108" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E108">
         <v>122</v>
       </c>
@@ -9856,7 +9861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="5:12">
+    <row r="109" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E109">
         <v>123</v>
       </c>
@@ -9867,7 +9872,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="110" spans="5:12">
+    <row r="110" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E110">
         <v>124</v>
       </c>
@@ -9878,7 +9883,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="111" spans="5:12">
+    <row r="111" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E111">
         <v>125</v>
       </c>
@@ -9889,7 +9894,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="112" spans="5:12">
+    <row r="112" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E112">
         <v>126</v>
       </c>
@@ -9900,7 +9905,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="113" spans="5:7">
+    <row r="113" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>127</v>
       </c>
@@ -9911,7 +9916,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="114" spans="5:7">
+    <row r="114" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>128</v>
       </c>
@@ -9922,7 +9927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="5:7">
+    <row r="115" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>129</v>
       </c>
@@ -9933,7 +9938,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="116" spans="5:7">
+    <row r="116" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E116">
         <v>130</v>
       </c>
@@ -9944,7 +9949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="5:7">
+    <row r="117" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E117">
         <v>131</v>
       </c>
@@ -9955,7 +9960,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="118" spans="5:7">
+    <row r="118" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E118">
         <v>132</v>
       </c>
@@ -9966,7 +9971,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="119" spans="5:7">
+    <row r="119" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E119">
         <v>133</v>
       </c>
@@ -9977,7 +9982,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="120" spans="5:7">
+    <row r="120" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E120">
         <v>134</v>
       </c>
@@ -9988,7 +9993,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="121" spans="5:7">
+    <row r="121" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E121">
         <v>135</v>
       </c>
@@ -9999,7 +10004,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="122" spans="5:7">
+    <row r="122" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E122">
         <v>136</v>
       </c>
@@ -10010,7 +10015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="5:7">
+    <row r="123" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E123">
         <v>138</v>
       </c>
@@ -10021,7 +10026,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="124" spans="5:7">
+    <row r="124" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E124">
         <v>139</v>
       </c>
@@ -10032,7 +10037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="5:7">
+    <row r="125" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E125">
         <v>140</v>
       </c>
@@ -10043,7 +10048,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="126" spans="5:7">
+    <row r="126" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E126">
         <v>141</v>
       </c>
@@ -10054,7 +10059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="5:7">
+    <row r="127" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E127">
         <v>144</v>
       </c>
@@ -10065,7 +10070,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="128" spans="5:7">
+    <row r="128" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E128">
         <v>145</v>
       </c>
@@ -10076,7 +10081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="5:7">
+    <row r="129" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E129">
         <v>146</v>
       </c>
@@ -10087,7 +10092,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="130" spans="5:7">
+    <row r="130" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E130">
         <v>147</v>
       </c>
@@ -10098,7 +10103,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="131" spans="5:7">
+    <row r="131" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E131">
         <v>148</v>
       </c>
@@ -10109,7 +10114,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="132" spans="5:7">
+    <row r="132" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E132">
         <v>149</v>
       </c>
@@ -10120,7 +10125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="5:7">
+    <row r="133" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E133">
         <v>150</v>
       </c>
@@ -10131,7 +10136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="5:7">
+    <row r="134" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E134">
         <v>151</v>
       </c>
@@ -10142,7 +10147,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="135" spans="5:7">
+    <row r="135" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E135">
         <v>153</v>
       </c>
@@ -10153,7 +10158,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="136" spans="5:7">
+    <row r="136" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E136">
         <v>156</v>
       </c>
@@ -10164,7 +10169,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="137" spans="5:7">
+    <row r="137" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E137">
         <v>157</v>
       </c>
@@ -10175,7 +10180,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="138" spans="5:7">
+    <row r="138" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E138">
         <v>158</v>
       </c>
@@ -10186,7 +10191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="5:7">
+    <row r="139" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E139">
         <v>159</v>
       </c>
@@ -10197,7 +10202,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="140" spans="5:7">
+    <row r="140" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E140">
         <v>160</v>
       </c>
@@ -10208,7 +10213,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="141" spans="5:7">
+    <row r="141" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E141">
         <v>161</v>
       </c>
@@ -10219,7 +10224,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="142" spans="5:7">
+    <row r="142" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E142">
         <v>163</v>
       </c>
@@ -10230,7 +10235,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="143" spans="5:7">
+    <row r="143" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E143">
         <v>164</v>
       </c>
@@ -10241,7 +10246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="5:7">
+    <row r="144" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E144">
         <v>165</v>
       </c>
@@ -10252,7 +10257,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="145" spans="5:7">
+    <row r="145" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E145">
         <v>166</v>
       </c>
@@ -10263,7 +10268,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="146" spans="5:7">
+    <row r="146" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E146">
         <v>167</v>
       </c>
@@ -10274,7 +10279,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="147" spans="5:7">
+    <row r="147" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E147">
         <v>168</v>
       </c>
@@ -10285,7 +10290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="5:7">
+    <row r="148" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E148">
         <v>170</v>
       </c>
@@ -10296,7 +10301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="5:7">
+    <row r="149" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E149">
         <v>171</v>
       </c>
@@ -10307,7 +10312,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="150" spans="5:7">
+    <row r="150" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E150">
         <v>172</v>
       </c>
@@ -10318,7 +10323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="5:7">
+    <row r="151" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E151">
         <v>173</v>
       </c>
@@ -10329,7 +10334,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="152" spans="5:7">
+    <row r="152" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E152">
         <v>174</v>
       </c>
@@ -10340,7 +10345,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="153" spans="5:7">
+    <row r="153" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E153">
         <v>175</v>
       </c>
@@ -10351,7 +10356,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="154" spans="5:7">
+    <row r="154" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E154">
         <v>176</v>
       </c>
@@ -10362,7 +10367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="5:7">
+    <row r="155" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E155">
         <v>177</v>
       </c>
@@ -10373,7 +10378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="5:7">
+    <row r="156" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E156">
         <v>178</v>
       </c>
@@ -10384,7 +10389,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="157" spans="5:7">
+    <row r="157" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E157">
         <v>179</v>
       </c>
@@ -10395,7 +10400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="5:7">
+    <row r="158" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E158">
         <v>181</v>
       </c>
@@ -10406,7 +10411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="5:7">
+    <row r="159" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E159">
         <v>183</v>
       </c>
@@ -10417,7 +10422,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="160" spans="5:7">
+    <row r="160" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E160">
         <v>184</v>
       </c>
@@ -10428,7 +10433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="5:7">
+    <row r="161" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E161">
         <v>185</v>
       </c>
@@ -10439,7 +10444,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="162" spans="5:7">
+    <row r="162" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E162">
         <v>186</v>
       </c>
@@ -10450,7 +10455,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="163" spans="5:7">
+    <row r="163" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E163">
         <v>188</v>
       </c>
@@ -10461,7 +10466,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="164" spans="5:7">
+    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E164">
         <v>190</v>
       </c>
@@ -10472,7 +10477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="5:7">
+    <row r="165" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E165">
         <v>192</v>
       </c>
@@ -10483,7 +10488,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="166" spans="5:7">
+    <row r="166" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E166">
         <v>193</v>
       </c>
@@ -10494,7 +10499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="5:7">
+    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E167">
         <v>194</v>
       </c>
@@ -10505,7 +10510,7 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="168" spans="5:7">
+    <row r="168" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E168">
         <v>195</v>
       </c>
@@ -10516,7 +10521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="5:7">
+    <row r="169" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E169">
         <v>196</v>
       </c>
@@ -10527,7 +10532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="5:7">
+    <row r="170" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E170">
         <v>198</v>
       </c>
@@ -10538,7 +10543,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="171" spans="5:7">
+    <row r="171" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E171">
         <v>199</v>
       </c>
@@ -10549,7 +10554,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="172" spans="5:7">
+    <row r="172" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E172">
         <v>201</v>
       </c>
@@ -10560,7 +10565,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="173" spans="5:7">
+    <row r="173" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E173">
         <v>202</v>
       </c>
@@ -10571,7 +10576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="5:7">
+    <row r="174" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E174">
         <v>204</v>
       </c>
@@ -10582,7 +10587,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="175" spans="5:7">
+    <row r="175" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E175">
         <v>205</v>
       </c>
@@ -10593,7 +10598,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="176" spans="5:7">
+    <row r="176" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E176">
         <v>206</v>
       </c>
@@ -10604,7 +10609,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="177" spans="5:7">
+    <row r="177" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E177">
         <v>207</v>
       </c>
@@ -10615,7 +10620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="5:7">
+    <row r="178" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E178">
         <v>208</v>
       </c>
@@ -10626,7 +10631,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="179" spans="5:7">
+    <row r="179" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E179">
         <v>209</v>
       </c>
@@ -10637,7 +10642,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="180" spans="5:7">
+    <row r="180" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E180">
         <v>210</v>
       </c>
@@ -10648,7 +10653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="5:7">
+    <row r="181" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E181">
         <v>211</v>
       </c>
@@ -10659,7 +10664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="5:7">
+    <row r="182" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E182">
         <v>213</v>
       </c>
@@ -10670,7 +10675,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="183" spans="5:7">
+    <row r="183" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E183">
         <v>214</v>
       </c>
@@ -10681,7 +10686,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="184" spans="5:7">
+    <row r="184" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E184">
         <v>215</v>
       </c>
@@ -10692,7 +10697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="5:7">
+    <row r="185" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E185">
         <v>216</v>
       </c>
@@ -10703,7 +10708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="5:7">
+    <row r="186" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E186">
         <v>218</v>
       </c>
@@ -10714,7 +10719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="5:7">
+    <row r="187" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E187">
         <v>219</v>
       </c>
@@ -10725,7 +10730,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="188" spans="5:7">
+    <row r="188" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E188">
         <v>220</v>
       </c>
@@ -10736,7 +10741,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="189" spans="5:7">
+    <row r="189" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E189">
         <v>221</v>
       </c>
@@ -10747,7 +10752,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="190" spans="5:7">
+    <row r="190" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E190">
         <v>222</v>
       </c>
@@ -10758,7 +10763,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="191" spans="5:7">
+    <row r="191" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E191">
         <v>224</v>
       </c>
@@ -10769,7 +10774,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="192" spans="5:7">
+    <row r="192" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E192">
         <v>225</v>
       </c>
@@ -10780,7 +10785,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="193" spans="5:7">
+    <row r="193" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E193">
         <v>226</v>
       </c>
@@ -10791,7 +10796,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="194" spans="5:7">
+    <row r="194" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E194">
         <v>227</v>
       </c>
@@ -10802,7 +10807,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="195" spans="5:7">
+    <row r="195" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E195">
         <v>228</v>
       </c>
@@ -10813,7 +10818,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="196" spans="5:7">
+    <row r="196" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E196">
         <v>230</v>
       </c>
@@ -10824,7 +10829,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="197" spans="5:7">
+    <row r="197" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E197">
         <v>232</v>
       </c>
@@ -10835,7 +10840,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="198" spans="5:7">
+    <row r="198" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E198">
         <v>234</v>
       </c>
@@ -10846,7 +10851,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="199" spans="5:7">
+    <row r="199" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E199">
         <v>237</v>
       </c>
@@ -10857,7 +10862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="5:7">
+    <row r="200" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E200">
         <v>238</v>
       </c>
@@ -10868,7 +10873,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="201" spans="5:7">
+    <row r="201" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E201">
         <v>239</v>
       </c>
@@ -10879,7 +10884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="5:7">
+    <row r="202" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E202">
         <v>240</v>
       </c>
@@ -10890,7 +10895,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="203" spans="5:7">
+    <row r="203" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E203">
         <v>241</v>
       </c>
@@ -10901,7 +10906,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="204" spans="5:7">
+    <row r="204" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E204">
         <v>242</v>
       </c>
@@ -10912,7 +10917,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="205" spans="5:7">
+    <row r="205" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E205">
         <v>243</v>
       </c>
@@ -10923,7 +10928,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="206" spans="5:7">
+    <row r="206" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E206">
         <v>246</v>
       </c>
@@ -10934,7 +10939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="5:7">
+    <row r="207" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E207">
         <v>247</v>
       </c>
@@ -10945,7 +10950,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="208" spans="5:7">
+    <row r="208" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E208">
         <v>248</v>
       </c>
@@ -10956,7 +10961,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="209" spans="5:12">
+    <row r="209" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E209">
         <v>249</v>
       </c>
@@ -10967,7 +10972,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="210" spans="5:12">
+    <row r="210" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E210">
         <v>250</v>
       </c>
@@ -10978,7 +10983,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="211" spans="5:12">
+    <row r="211" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G211">
         <f>COUNT(G3:G210)</f>
         <v>208</v>
@@ -11004,22 +11009,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N158"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -11053,7 +11058,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2409609</v>
       </c>
@@ -11091,7 +11096,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2442646</v>
       </c>
@@ -11129,7 +11134,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2442662</v>
       </c>
@@ -11167,7 +11172,7 @@
         <v>-0.47</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2442673</v>
       </c>
@@ -11205,7 +11210,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2442680</v>
       </c>
@@ -11243,7 +11248,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2442692</v>
       </c>
@@ -11281,7 +11286,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2442700</v>
       </c>
@@ -11319,7 +11324,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2442711</v>
       </c>
@@ -11357,7 +11362,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2442718</v>
       </c>
@@ -11395,7 +11400,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2442903</v>
       </c>
@@ -11433,7 +11438,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2442906</v>
       </c>
@@ -11471,7 +11476,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2442910</v>
       </c>
@@ -11509,7 +11514,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2443194</v>
       </c>
@@ -11547,7 +11552,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2443210</v>
       </c>
@@ -11585,7 +11590,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2443211</v>
       </c>
@@ -11623,7 +11628,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2443215</v>
       </c>
@@ -11661,7 +11666,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2443407</v>
       </c>
@@ -11699,7 +11704,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2443413</v>
       </c>
@@ -11737,7 +11742,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2443419</v>
       </c>
@@ -11772,7 +11777,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2451795</v>
       </c>
@@ -11807,7 +11812,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2451900</v>
       </c>
@@ -11842,7 +11847,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2451905</v>
       </c>
@@ -11877,7 +11882,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2451911</v>
       </c>
@@ -11912,7 +11917,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2451919</v>
       </c>
@@ -11947,7 +11952,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2451922</v>
       </c>
@@ -11982,7 +11987,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2451932</v>
       </c>
@@ -12017,7 +12022,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2453957</v>
       </c>
@@ -12052,7 +12057,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2453961</v>
       </c>
@@ -12087,7 +12092,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2454068</v>
       </c>
@@ -12122,7 +12127,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2454073</v>
       </c>
@@ -12157,7 +12162,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2454074</v>
       </c>
@@ -12192,7 +12197,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2454076</v>
       </c>
@@ -12227,7 +12232,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2454080</v>
       </c>
@@ -12262,7 +12267,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2454084</v>
       </c>
@@ -12297,7 +12302,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2454088</v>
       </c>
@@ -12332,7 +12337,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2454089</v>
       </c>
@@ -12367,7 +12372,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2454090</v>
       </c>
@@ -12402,7 +12407,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2454460</v>
       </c>
@@ -12437,7 +12442,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2454461</v>
       </c>
@@ -12472,7 +12477,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2454494</v>
       </c>
@@ -12504,7 +12509,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2454600</v>
       </c>
@@ -12536,7 +12541,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2456447</v>
       </c>
@@ -12568,7 +12573,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2456450</v>
       </c>
@@ -12600,7 +12605,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2456456</v>
       </c>
@@ -12632,7 +12637,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2456459</v>
       </c>
@@ -12664,7 +12669,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2456460</v>
       </c>
@@ -12696,7 +12701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2456463</v>
       </c>
@@ -12728,7 +12733,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2456625</v>
       </c>
@@ -12760,7 +12765,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2456811</v>
       </c>
@@ -12792,7 +12797,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2456933</v>
       </c>
@@ -12824,7 +12829,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2456936</v>
       </c>
@@ -12856,7 +12861,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2465685</v>
       </c>
@@ -12888,7 +12893,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2465686</v>
       </c>
@@ -12920,7 +12925,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2465689</v>
       </c>
@@ -12952,7 +12957,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2465799</v>
       </c>
@@ -12984,7 +12989,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2465800</v>
       </c>
@@ -13016,7 +13021,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2465802</v>
       </c>
@@ -13048,7 +13053,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2465803</v>
       </c>
@@ -13080,7 +13085,7 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2465808</v>
       </c>
@@ -13112,7 +13117,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2467455</v>
       </c>
@@ -13144,7 +13149,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2467466</v>
       </c>
@@ -13176,7 +13181,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2467471</v>
       </c>
@@ -13208,7 +13213,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2467477</v>
       </c>
@@ -13240,7 +13245,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2467622</v>
       </c>
@@ -13272,7 +13277,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2467625</v>
       </c>
@@ -13304,7 +13309,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2467630</v>
       </c>
@@ -13336,7 +13341,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2467632</v>
       </c>
@@ -13368,7 +13373,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2467930</v>
       </c>
@@ -13400,7 +13405,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2467935</v>
       </c>
@@ -13432,7 +13437,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2467937</v>
       </c>
@@ -13464,7 +13469,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2468023</v>
       </c>
@@ -13496,7 +13501,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2468025</v>
       </c>
@@ -13528,7 +13533,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2469961</v>
       </c>
@@ -13557,7 +13562,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2470134</v>
       </c>
@@ -13586,7 +13591,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2470138</v>
       </c>
@@ -13615,7 +13620,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2470304</v>
       </c>
@@ -13644,7 +13649,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2470307</v>
       </c>
@@ -13673,7 +13678,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2470311</v>
       </c>
@@ -13702,7 +13707,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2477383</v>
       </c>
@@ -13731,7 +13736,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2477497</v>
       </c>
@@ -13760,7 +13765,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2477498</v>
       </c>
@@ -13789,7 +13794,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2477501</v>
       </c>
@@ -13818,7 +13823,7 @@
         <v>-0.66</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2477502</v>
       </c>
@@ -13847,7 +13852,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2477504</v>
       </c>
@@ -13876,7 +13881,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2477506</v>
       </c>
@@ -13905,7 +13910,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2477509</v>
       </c>
@@ -13934,7 +13939,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2477515</v>
       </c>
@@ -13963,7 +13968,7 @@
         <v>-0.93</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2477516</v>
       </c>
@@ -13992,7 +13997,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F90">
         <v>2457081</v>
       </c>
@@ -14009,7 +14014,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F91">
         <v>2457083</v>
       </c>
@@ -14034,7 +14039,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F92">
         <v>2457192</v>
       </c>
@@ -14051,7 +14056,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F93">
         <v>2457193</v>
       </c>
@@ -14068,7 +14073,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F94">
         <v>2457195</v>
       </c>
@@ -14085,7 +14090,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F95">
         <v>2457197</v>
       </c>
@@ -14102,7 +14107,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F96">
         <v>2457342</v>
       </c>
@@ -14119,7 +14124,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="97" spans="6:14">
+    <row r="97" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F97">
         <v>2457345</v>
       </c>
@@ -14136,7 +14141,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="98" spans="6:14">
+    <row r="98" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F98">
         <v>2457348</v>
       </c>
@@ -14153,7 +14158,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="99" spans="6:14">
+    <row r="99" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F99">
         <v>2457350</v>
       </c>
@@ -14170,7 +14175,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="100" spans="6:14">
+    <row r="100" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F100">
         <v>2458806</v>
       </c>
@@ -14187,7 +14192,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="101" spans="6:14">
+    <row r="101" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F101">
         <v>2458808</v>
       </c>
@@ -14204,7 +14209,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="102" spans="6:14">
+    <row r="102" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F102">
         <v>2458811</v>
       </c>
@@ -14221,7 +14226,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="103" spans="6:14">
+    <row r="103" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F103">
         <v>2458812</v>
       </c>
@@ -14238,7 +14243,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="104" spans="6:14">
+    <row r="104" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F104">
         <v>2458913</v>
       </c>
@@ -14255,7 +14260,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="105" spans="6:14">
+    <row r="105" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F105">
         <v>2458914</v>
       </c>
@@ -14272,7 +14277,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="106" spans="6:14">
+    <row r="106" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F106">
         <v>2458915</v>
       </c>
@@ -14289,7 +14294,7 @@
         <v>-0.86</v>
       </c>
     </row>
-    <row r="107" spans="6:14">
+    <row r="107" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F107">
         <v>2458916</v>
       </c>
@@ -14306,7 +14311,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="108" spans="6:14">
+    <row r="108" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F108">
         <v>2461397</v>
       </c>
@@ -14323,7 +14328,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="109" spans="6:14">
+    <row r="109" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F109">
         <v>2461398</v>
       </c>
@@ -14340,7 +14345,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="110" spans="6:14">
+    <row r="110" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F110">
         <v>2461402</v>
       </c>
@@ -14357,7 +14362,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="111" spans="6:14">
+    <row r="111" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F111">
         <v>2461621</v>
       </c>
@@ -14374,7 +14379,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="112" spans="6:14">
+    <row r="112" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F112">
         <v>2461625</v>
       </c>
@@ -14391,7 +14396,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="113" spans="6:14">
+    <row r="113" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F113">
         <v>2461629</v>
       </c>
@@ -14408,7 +14413,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="114" spans="6:14">
+    <row r="114" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F114">
         <v>2461892</v>
       </c>
@@ -14425,7 +14430,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="115" spans="6:14">
+    <row r="115" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F115">
         <v>2461893</v>
       </c>
@@ -14442,7 +14447,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="116" spans="6:14">
+    <row r="116" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F116">
         <v>2461894</v>
       </c>
@@ -14459,7 +14464,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="117" spans="6:14">
+    <row r="117" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F117">
         <v>2461895</v>
       </c>
@@ -14476,7 +14481,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="118" spans="6:14">
+    <row r="118" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F118">
         <v>2462430</v>
       </c>
@@ -14493,7 +14498,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="119" spans="6:14">
+    <row r="119" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F119">
         <v>2462431</v>
       </c>
@@ -14510,7 +14515,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="120" spans="6:14">
+    <row r="120" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F120">
         <v>2462432</v>
       </c>
@@ -14524,7 +14529,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="121" spans="6:14">
+    <row r="121" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F121">
         <v>2462434</v>
       </c>
@@ -14538,7 +14543,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="122" spans="6:14">
+    <row r="122" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F122">
         <v>2462501</v>
       </c>
@@ -14552,7 +14557,7 @@
         <v>-0.98</v>
       </c>
     </row>
-    <row r="123" spans="6:14">
+    <row r="123" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F123">
         <v>2462503</v>
       </c>
@@ -14566,7 +14571,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="124" spans="6:14">
+    <row r="124" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F124">
         <v>2462505</v>
       </c>
@@ -14580,7 +14585,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="125" spans="6:14">
+    <row r="125" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F125">
         <v>2462572</v>
       </c>
@@ -14594,7 +14599,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="126" spans="6:14">
+    <row r="126" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F126">
         <v>2462573</v>
       </c>
@@ -14608,7 +14613,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="127" spans="6:14">
+    <row r="127" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F127">
         <v>2462574</v>
       </c>
@@ -14622,7 +14627,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="128" spans="6:14">
+    <row r="128" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F128">
         <v>2462575</v>
       </c>
@@ -14636,7 +14641,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="129" spans="6:9">
+    <row r="129" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F129">
         <v>2466137</v>
       </c>
@@ -14650,7 +14655,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="130" spans="6:9">
+    <row r="130" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F130">
         <v>2466138</v>
       </c>
@@ -14664,7 +14669,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="131" spans="6:9">
+    <row r="131" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F131">
         <v>2466142</v>
       </c>
@@ -14678,7 +14683,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="132" spans="6:9">
+    <row r="132" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F132">
         <v>2466152</v>
       </c>
@@ -14692,7 +14697,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="133" spans="6:9">
+    <row r="133" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F133">
         <v>2466236</v>
       </c>
@@ -14706,7 +14711,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="134" spans="6:9">
+    <row r="134" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F134">
         <v>2466240</v>
       </c>
@@ -14720,7 +14725,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="135" spans="6:9">
+    <row r="135" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F135">
         <v>2466241</v>
       </c>
@@ -14734,7 +14739,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="136" spans="6:9">
+    <row r="136" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F136">
         <v>2466441</v>
       </c>
@@ -14748,7 +14753,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="137" spans="6:9">
+    <row r="137" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F137">
         <v>2466442</v>
       </c>
@@ -14762,7 +14767,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="138" spans="6:9">
+    <row r="138" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F138">
         <v>2466547</v>
       </c>
@@ -14776,7 +14781,7 @@
         <v>-0.86</v>
       </c>
     </row>
-    <row r="139" spans="6:9">
+    <row r="139" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F139">
         <v>2466548</v>
       </c>
@@ -14790,7 +14795,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="6:9">
+    <row r="140" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F140">
         <v>2466549</v>
       </c>
@@ -14804,7 +14809,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="141" spans="6:9">
+    <row r="141" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F141">
         <v>2466635</v>
       </c>
@@ -14818,7 +14823,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="142" spans="6:9">
+    <row r="142" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F142">
         <v>2466638</v>
       </c>
@@ -14832,7 +14837,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="143" spans="6:9">
+    <row r="143" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F143">
         <v>2468204</v>
       </c>
@@ -14846,7 +14851,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="144" spans="6:9">
+    <row r="144" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F144">
         <v>2468205</v>
       </c>
@@ -14860,7 +14865,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="145" spans="6:14">
+    <row r="145" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F145">
         <v>2468206</v>
       </c>
@@ -14874,7 +14879,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="146" spans="6:14">
+    <row r="146" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F146">
         <v>2468345</v>
       </c>
@@ -14888,7 +14893,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="147" spans="6:14">
+    <row r="147" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F147">
         <v>2468347</v>
       </c>
@@ -14902,7 +14907,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="148" spans="6:14">
+    <row r="148" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F148">
         <v>2468348</v>
       </c>
@@ -14916,7 +14921,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="149" spans="6:14">
+    <row r="149" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F149">
         <v>2468350</v>
       </c>
@@ -14930,7 +14935,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="150" spans="6:14">
+    <row r="150" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F150">
         <v>2468450</v>
       </c>
@@ -14944,7 +14949,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="151" spans="6:14">
+    <row r="151" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F151">
         <v>2468451</v>
       </c>
@@ -14958,7 +14963,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="152" spans="6:14">
+    <row r="152" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F152">
         <v>2468454</v>
       </c>
@@ -14972,7 +14977,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="153" spans="6:14">
+    <row r="153" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F153">
         <v>2468534</v>
       </c>
@@ -14986,7 +14991,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="154" spans="6:14">
+    <row r="154" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F154">
         <v>2468536</v>
       </c>
@@ -15000,7 +15005,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="155" spans="6:14">
+    <row r="155" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F155">
         <v>2468538</v>
       </c>
@@ -15014,7 +15019,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="156" spans="6:14">
+    <row r="156" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F156">
         <v>2468539</v>
       </c>
@@ -15028,7 +15033,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="158" spans="6:14">
+    <row r="158" spans="6:14" x14ac:dyDescent="0.25">
       <c r="M158">
         <f>COUNT(M3:M157)</f>
         <v>38</v>
@@ -15050,7 +15055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L113"/>
   <sheetViews>
@@ -15058,7 +15063,7 @@
       <selection activeCell="AH103" sqref="AH103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
@@ -15068,7 +15073,7 @@
     <col min="7" max="12" width="12.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -15100,7 +15105,7 @@
       </c>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -15117,7 +15122,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D2,'superstition_golf Ex 6 7'!$E2)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D2,'superstition_golf Ex 6 7'!$E2)</f>
         <v>1</v>
       </c>
       <c r="G2">
@@ -15137,7 +15142,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -15154,7 +15159,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D3,'superstition_golf Ex 6 7'!$E3)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D3,'superstition_golf Ex 6 7'!$E3)</f>
         <v>2</v>
       </c>
       <c r="G3">
@@ -15174,7 +15179,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -15191,7 +15196,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D4,'superstition_golf Ex 6 7'!$E4)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D4,'superstition_golf Ex 6 7'!$E4)</f>
         <v>1</v>
       </c>
       <c r="G4">
@@ -15211,7 +15216,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -15228,7 +15233,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D5,'superstition_golf Ex 6 7'!$E5)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D5,'superstition_golf Ex 6 7'!$E5)</f>
         <v>1</v>
       </c>
       <c r="G5">
@@ -15248,7 +15253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -15265,7 +15270,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D6,'superstition_golf Ex 6 7'!$E6)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D6,'superstition_golf Ex 6 7'!$E6)</f>
         <v>2</v>
       </c>
       <c r="G6">
@@ -15285,7 +15290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -15302,7 +15307,7 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D7,'superstition_golf Ex 6 7'!$E7)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D7,'superstition_golf Ex 6 7'!$E7)</f>
         <v>3</v>
       </c>
       <c r="G7">
@@ -15322,7 +15327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -15339,7 +15344,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D8,'superstition_golf Ex 6 7'!$E8)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D8,'superstition_golf Ex 6 7'!$E8)</f>
         <v>3</v>
       </c>
       <c r="G8">
@@ -15359,7 +15364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -15376,7 +15381,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D9,'superstition_golf Ex 6 7'!$E9)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D9,'superstition_golf Ex 6 7'!$E9)</f>
         <v>1</v>
       </c>
       <c r="G9">
@@ -15396,7 +15401,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -15413,7 +15418,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D10,'superstition_golf Ex 6 7'!$E10)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D10,'superstition_golf Ex 6 7'!$E10)</f>
         <v>2</v>
       </c>
       <c r="G10">
@@ -15433,7 +15438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -15450,7 +15455,7 @@
         <v>4</v>
       </c>
       <c r="F11">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D11,'superstition_golf Ex 6 7'!$E11)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D11,'superstition_golf Ex 6 7'!$E11)</f>
         <v>3</v>
       </c>
       <c r="G11">
@@ -15470,7 +15475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -15487,7 +15492,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D12,'superstition_golf Ex 6 7'!$E12)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D12,'superstition_golf Ex 6 7'!$E12)</f>
         <v>2</v>
       </c>
       <c r="G12">
@@ -15507,7 +15512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -15524,7 +15529,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D13,'superstition_golf Ex 6 7'!$E13)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D13,'superstition_golf Ex 6 7'!$E13)</f>
         <v>1</v>
       </c>
       <c r="G13">
@@ -15544,7 +15549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -15561,7 +15566,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D14,'superstition_golf Ex 6 7'!$E14)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D14,'superstition_golf Ex 6 7'!$E14)</f>
         <v>1</v>
       </c>
       <c r="G14">
@@ -15581,7 +15586,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -15598,7 +15603,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D15,'superstition_golf Ex 6 7'!$E15)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D15,'superstition_golf Ex 6 7'!$E15)</f>
         <v>1</v>
       </c>
       <c r="G15">
@@ -15618,7 +15623,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -15635,7 +15640,7 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D16,'superstition_golf Ex 6 7'!$E16)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D16,'superstition_golf Ex 6 7'!$E16)</f>
         <v>2</v>
       </c>
       <c r="G16">
@@ -15655,7 +15660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -15672,7 +15677,7 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D17,'superstition_golf Ex 6 7'!$E17)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D17,'superstition_golf Ex 6 7'!$E17)</f>
         <v>2</v>
       </c>
       <c r="G17">
@@ -15692,7 +15697,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -15709,7 +15714,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D18,'superstition_golf Ex 6 7'!$E18)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D18,'superstition_golf Ex 6 7'!$E18)</f>
         <v>1</v>
       </c>
       <c r="G18">
@@ -15729,7 +15734,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -15746,7 +15751,7 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D19,'superstition_golf Ex 6 7'!$E19)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D19,'superstition_golf Ex 6 7'!$E19)</f>
         <v>3</v>
       </c>
       <c r="G19">
@@ -15766,7 +15771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -15783,7 +15788,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D20,'superstition_golf Ex 6 7'!$E20)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D20,'superstition_golf Ex 6 7'!$E20)</f>
         <v>1</v>
       </c>
       <c r="G20">
@@ -15803,7 +15808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -15820,7 +15825,7 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D21,'superstition_golf Ex 6 7'!$E21)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D21,'superstition_golf Ex 6 7'!$E21)</f>
         <v>2</v>
       </c>
       <c r="G21">
@@ -15840,7 +15845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -15857,7 +15862,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D22,'superstition_golf Ex 6 7'!$E22)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D22,'superstition_golf Ex 6 7'!$E22)</f>
         <v>1</v>
       </c>
       <c r="G22">
@@ -15877,7 +15882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -15894,7 +15899,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D23,'superstition_golf Ex 6 7'!$E23)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D23,'superstition_golf Ex 6 7'!$E23)</f>
         <v>1</v>
       </c>
       <c r="G23">
@@ -15914,7 +15919,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -15931,7 +15936,7 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D24,'superstition_golf Ex 6 7'!$E24)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D24,'superstition_golf Ex 6 7'!$E24)</f>
         <v>3</v>
       </c>
       <c r="G24">
@@ -15951,7 +15956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -15968,7 +15973,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D25,'superstition_golf Ex 6 7'!$E25)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D25,'superstition_golf Ex 6 7'!$E25)</f>
         <v>1</v>
       </c>
       <c r="G25">
@@ -15988,7 +15993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -16005,7 +16010,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D26,'superstition_golf Ex 6 7'!$E26)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D26,'superstition_golf Ex 6 7'!$E26)</f>
         <v>1</v>
       </c>
       <c r="G26">
@@ -16025,7 +16030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -16042,7 +16047,7 @@
         <v>3</v>
       </c>
       <c r="F27">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D27,'superstition_golf Ex 6 7'!$E27)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D27,'superstition_golf Ex 6 7'!$E27)</f>
         <v>3</v>
       </c>
       <c r="G27">
@@ -16062,7 +16067,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -16079,7 +16084,7 @@
         <v>3</v>
       </c>
       <c r="F28">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D28,'superstition_golf Ex 6 7'!$E28)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D28,'superstition_golf Ex 6 7'!$E28)</f>
         <v>3</v>
       </c>
       <c r="G28">
@@ -16099,7 +16104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -16116,7 +16121,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D29,'superstition_golf Ex 6 7'!$E29)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D29,'superstition_golf Ex 6 7'!$E29)</f>
         <v>1</v>
       </c>
       <c r="G29">
@@ -16136,7 +16141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -16153,7 +16158,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D30,'superstition_golf Ex 6 7'!$E30)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D30,'superstition_golf Ex 6 7'!$E30)</f>
         <v>1</v>
       </c>
       <c r="G30">
@@ -16173,7 +16178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -16188,7 +16193,7 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D31,'superstition_golf Ex 6 7'!$E31)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D31,'superstition_golf Ex 6 7'!$E31)</f>
         <v>2</v>
       </c>
       <c r="G31">
@@ -16208,7 +16213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -16225,7 +16230,7 @@
         <v>3</v>
       </c>
       <c r="F32">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D32,'superstition_golf Ex 6 7'!$E32)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D32,'superstition_golf Ex 6 7'!$E32)</f>
         <v>2.5</v>
       </c>
       <c r="G32">
@@ -16245,7 +16250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -16262,7 +16267,7 @@
         <v>2</v>
       </c>
       <c r="F33">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D33,'superstition_golf Ex 6 7'!$E33)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D33,'superstition_golf Ex 6 7'!$E33)</f>
         <v>2</v>
       </c>
       <c r="G33">
@@ -16282,7 +16287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -16299,7 +16304,7 @@
         <v>4</v>
       </c>
       <c r="F34">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D34,'superstition_golf Ex 6 7'!$E34)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D34,'superstition_golf Ex 6 7'!$E34)</f>
         <v>3.5</v>
       </c>
       <c r="G34">
@@ -16319,7 +16324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -16336,7 +16341,7 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D35,'superstition_golf Ex 6 7'!$E35)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D35,'superstition_golf Ex 6 7'!$E35)</f>
         <v>2</v>
       </c>
       <c r="G35">
@@ -16356,7 +16361,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -16373,7 +16378,7 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D36,'superstition_golf Ex 6 7'!$E36)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D36,'superstition_golf Ex 6 7'!$E36)</f>
         <v>2</v>
       </c>
       <c r="G36">
@@ -16393,7 +16398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -16410,7 +16415,7 @@
         <v>3</v>
       </c>
       <c r="F37">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D37,'superstition_golf Ex 6 7'!$E37)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D37,'superstition_golf Ex 6 7'!$E37)</f>
         <v>3</v>
       </c>
       <c r="G37">
@@ -16430,7 +16435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -16447,7 +16452,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D38,'superstition_golf Ex 6 7'!$E38)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D38,'superstition_golf Ex 6 7'!$E38)</f>
         <v>1</v>
       </c>
       <c r="G38">
@@ -16467,7 +16472,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -16484,7 +16489,7 @@
         <v>3</v>
       </c>
       <c r="F39">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D39,'superstition_golf Ex 6 7'!$E39)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D39,'superstition_golf Ex 6 7'!$E39)</f>
         <v>3</v>
       </c>
       <c r="G39">
@@ -16504,7 +16509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -16521,7 +16526,7 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D40,'superstition_golf Ex 6 7'!$E40)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D40,'superstition_golf Ex 6 7'!$E40)</f>
         <v>1</v>
       </c>
       <c r="G40">
@@ -16541,7 +16546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>63</v>
       </c>
@@ -16558,7 +16563,7 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D41,'superstition_golf Ex 6 7'!$E41)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D41,'superstition_golf Ex 6 7'!$E41)</f>
         <v>2</v>
       </c>
       <c r="G41">
@@ -16578,7 +16583,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -16595,7 +16600,7 @@
         <v>2</v>
       </c>
       <c r="F42">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D42,'superstition_golf Ex 6 7'!$E42)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D42,'superstition_golf Ex 6 7'!$E42)</f>
         <v>2.5</v>
       </c>
       <c r="G42">
@@ -16615,7 +16620,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -16632,7 +16637,7 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D43,'superstition_golf Ex 6 7'!$E43)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D43,'superstition_golf Ex 6 7'!$E43)</f>
         <v>3</v>
       </c>
       <c r="G43">
@@ -16652,7 +16657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -16669,7 +16674,7 @@
         <v>3</v>
       </c>
       <c r="F44">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D44,'superstition_golf Ex 6 7'!$E44)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D44,'superstition_golf Ex 6 7'!$E44)</f>
         <v>3</v>
       </c>
       <c r="G44">
@@ -16689,7 +16694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -16706,7 +16711,7 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D45,'superstition_golf Ex 6 7'!$E45)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D45,'superstition_golf Ex 6 7'!$E45)</f>
         <v>2</v>
       </c>
       <c r="G45">
@@ -16726,7 +16731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -16743,7 +16748,7 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D46,'superstition_golf Ex 6 7'!$E46)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D46,'superstition_golf Ex 6 7'!$E46)</f>
         <v>2</v>
       </c>
       <c r="G46">
@@ -16763,7 +16768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -16780,7 +16785,7 @@
         <v>3</v>
       </c>
       <c r="F47">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D47,'superstition_golf Ex 6 7'!$E47)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D47,'superstition_golf Ex 6 7'!$E47)</f>
         <v>3</v>
       </c>
       <c r="G47">
@@ -16800,7 +16805,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -16817,7 +16822,7 @@
         <v>2</v>
       </c>
       <c r="F48">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D48,'superstition_golf Ex 6 7'!$E48)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D48,'superstition_golf Ex 6 7'!$E48)</f>
         <v>2</v>
       </c>
       <c r="G48">
@@ -16837,7 +16842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -16854,7 +16859,7 @@
         <v>3</v>
       </c>
       <c r="F49">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D49,'superstition_golf Ex 6 7'!$E49)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D49,'superstition_golf Ex 6 7'!$E49)</f>
         <v>3</v>
       </c>
       <c r="G49">
@@ -16874,7 +16879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -16891,7 +16896,7 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D50,'superstition_golf Ex 6 7'!$E50)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D50,'superstition_golf Ex 6 7'!$E50)</f>
         <v>2</v>
       </c>
       <c r="G50">
@@ -16911,7 +16916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -16928,7 +16933,7 @@
         <v>2</v>
       </c>
       <c r="F51">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D51,'superstition_golf Ex 6 7'!$E51)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D51,'superstition_golf Ex 6 7'!$E51)</f>
         <v>2</v>
       </c>
       <c r="G51">
@@ -16948,7 +16953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -16965,7 +16970,7 @@
         <v>3</v>
       </c>
       <c r="F52">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D52,'superstition_golf Ex 6 7'!$E52)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D52,'superstition_golf Ex 6 7'!$E52)</f>
         <v>2.5</v>
       </c>
       <c r="G52">
@@ -16985,7 +16990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -17002,7 +17007,7 @@
         <v>2</v>
       </c>
       <c r="F53">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D53,'superstition_golf Ex 6 7'!$E53)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D53,'superstition_golf Ex 6 7'!$E53)</f>
         <v>3</v>
       </c>
       <c r="G53">
@@ -17022,7 +17027,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -17039,7 +17044,7 @@
         <v>3</v>
       </c>
       <c r="F54">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D54,'superstition_golf Ex 6 7'!$E54)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D54,'superstition_golf Ex 6 7'!$E54)</f>
         <v>3</v>
       </c>
       <c r="G54">
@@ -17059,7 +17064,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -17076,7 +17081,7 @@
         <v>4</v>
       </c>
       <c r="F55">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D55,'superstition_golf Ex 6 7'!$E55)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D55,'superstition_golf Ex 6 7'!$E55)</f>
         <v>3.5</v>
       </c>
       <c r="G55">
@@ -17096,7 +17101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -17113,7 +17118,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D56,'superstition_golf Ex 6 7'!$E56)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D56,'superstition_golf Ex 6 7'!$E56)</f>
         <v>1.5</v>
       </c>
       <c r="G56">
@@ -17133,7 +17138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -17150,7 +17155,7 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D57,'superstition_golf Ex 6 7'!$E57)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D57,'superstition_golf Ex 6 7'!$E57)</f>
         <v>2.5</v>
       </c>
       <c r="G57">
@@ -17166,7 +17171,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>80</v>
       </c>
@@ -17183,7 +17188,7 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D58,'superstition_golf Ex 6 7'!$E58)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D58,'superstition_golf Ex 6 7'!$E58)</f>
         <v>1</v>
       </c>
       <c r="G58">
@@ -17199,7 +17204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -17216,7 +17221,7 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D59,'superstition_golf Ex 6 7'!$E59)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D59,'superstition_golf Ex 6 7'!$E59)</f>
         <v>1</v>
       </c>
       <c r="G59">
@@ -17232,7 +17237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -17249,7 +17254,7 @@
         <v>3</v>
       </c>
       <c r="F60">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D60,'superstition_golf Ex 6 7'!$E60)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D60,'superstition_golf Ex 6 7'!$E60)</f>
         <v>3</v>
       </c>
       <c r="G60">
@@ -17273,7 +17278,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -17290,7 +17295,7 @@
         <v>4</v>
       </c>
       <c r="F61">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D61,'superstition_golf Ex 6 7'!$E61)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D61,'superstition_golf Ex 6 7'!$E61)</f>
         <v>3</v>
       </c>
       <c r="G61">
@@ -17302,7 +17307,7 @@
       <c r="K61"/>
       <c r="L61"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>84</v>
       </c>
@@ -17319,7 +17324,7 @@
         <v>2</v>
       </c>
       <c r="F62">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D62,'superstition_golf Ex 6 7'!$E62)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D62,'superstition_golf Ex 6 7'!$E62)</f>
         <v>3.5</v>
       </c>
       <c r="G62">
@@ -17331,7 +17336,7 @@
       <c r="K62"/>
       <c r="L62"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -17348,7 +17353,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D63,'superstition_golf Ex 6 7'!$E63)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D63,'superstition_golf Ex 6 7'!$E63)</f>
         <v>1</v>
       </c>
       <c r="G63">
@@ -17360,7 +17365,7 @@
       <c r="K63"/>
       <c r="L63"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -17377,7 +17382,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D64,'superstition_golf Ex 6 7'!$E64)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D64,'superstition_golf Ex 6 7'!$E64)</f>
         <v>1</v>
       </c>
       <c r="G64">
@@ -17389,7 +17394,7 @@
       <c r="K64"/>
       <c r="L64"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -17406,7 +17411,7 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D65,'superstition_golf Ex 6 7'!$E65)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D65,'superstition_golf Ex 6 7'!$E65)</f>
         <v>1</v>
       </c>
       <c r="G65">
@@ -17418,7 +17423,7 @@
       <c r="K65"/>
       <c r="L65"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -17435,7 +17440,7 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D66,'superstition_golf Ex 6 7'!$E66)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D66,'superstition_golf Ex 6 7'!$E66)</f>
         <v>1</v>
       </c>
       <c r="G66">
@@ -17447,7 +17452,7 @@
       <c r="K66"/>
       <c r="L66"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>89</v>
       </c>
@@ -17464,7 +17469,7 @@
         <v>2</v>
       </c>
       <c r="F67">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D67,'superstition_golf Ex 6 7'!$E67)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D67,'superstition_golf Ex 6 7'!$E67)</f>
         <v>3.5</v>
       </c>
       <c r="G67">
@@ -17476,7 +17481,7 @@
       <c r="K67"/>
       <c r="L67"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>90</v>
       </c>
@@ -17493,7 +17498,7 @@
         <v>2</v>
       </c>
       <c r="F68">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D68,'superstition_golf Ex 6 7'!$E68)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D68,'superstition_golf Ex 6 7'!$E68)</f>
         <v>2.5</v>
       </c>
       <c r="G68">
@@ -17505,7 +17510,7 @@
       <c r="K68"/>
       <c r="L68"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -17522,7 +17527,7 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D69,'superstition_golf Ex 6 7'!$E69)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D69,'superstition_golf Ex 6 7'!$E69)</f>
         <v>1</v>
       </c>
       <c r="G69">
@@ -17534,7 +17539,7 @@
       <c r="K69"/>
       <c r="L69"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -17551,7 +17556,7 @@
         <v>4</v>
       </c>
       <c r="F70">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D70,'superstition_golf Ex 6 7'!$E70)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D70,'superstition_golf Ex 6 7'!$E70)</f>
         <v>2.5</v>
       </c>
       <c r="G70">
@@ -17563,7 +17568,7 @@
       <c r="K70"/>
       <c r="L70"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>93</v>
       </c>
@@ -17580,7 +17585,7 @@
         <v>4</v>
       </c>
       <c r="F71">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D71,'superstition_golf Ex 6 7'!$E71)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D71,'superstition_golf Ex 6 7'!$E71)</f>
         <v>2.5</v>
       </c>
       <c r="G71">
@@ -17592,7 +17597,7 @@
       <c r="K71"/>
       <c r="L71"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>94</v>
       </c>
@@ -17609,7 +17614,7 @@
         <v>2</v>
       </c>
       <c r="F72">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D72,'superstition_golf Ex 6 7'!$E72)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D72,'superstition_golf Ex 6 7'!$E72)</f>
         <v>3</v>
       </c>
       <c r="G72">
@@ -17621,7 +17626,7 @@
       <c r="K72"/>
       <c r="L72"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>95</v>
       </c>
@@ -17638,7 +17643,7 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D73,'superstition_golf Ex 6 7'!$E73)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D73,'superstition_golf Ex 6 7'!$E73)</f>
         <v>2</v>
       </c>
       <c r="G73">
@@ -17650,7 +17655,7 @@
       <c r="K73"/>
       <c r="L73"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -17667,7 +17672,7 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D74,'superstition_golf Ex 6 7'!$E74)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D74,'superstition_golf Ex 6 7'!$E74)</f>
         <v>1</v>
       </c>
       <c r="G74">
@@ -17679,7 +17684,7 @@
       <c r="K74"/>
       <c r="L74"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>97</v>
       </c>
@@ -17696,7 +17701,7 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D75,'superstition_golf Ex 6 7'!$E75)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D75,'superstition_golf Ex 6 7'!$E75)</f>
         <v>3</v>
       </c>
       <c r="G75">
@@ -17708,7 +17713,7 @@
       <c r="K75"/>
       <c r="L75"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>98</v>
       </c>
@@ -17725,7 +17730,7 @@
         <v>3</v>
       </c>
       <c r="F76">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D76,'superstition_golf Ex 6 7'!$E76)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D76,'superstition_golf Ex 6 7'!$E76)</f>
         <v>3.5</v>
       </c>
       <c r="G76">
@@ -17737,7 +17742,7 @@
       <c r="K76"/>
       <c r="L76"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>99</v>
       </c>
@@ -17754,7 +17759,7 @@
         <v>3</v>
       </c>
       <c r="F77">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D77,'superstition_golf Ex 6 7'!$E77)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D77,'superstition_golf Ex 6 7'!$E77)</f>
         <v>4</v>
       </c>
       <c r="G77">
@@ -17766,7 +17771,7 @@
       <c r="K77"/>
       <c r="L77"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>100</v>
       </c>
@@ -17783,7 +17788,7 @@
         <v>3</v>
       </c>
       <c r="F78">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D78,'superstition_golf Ex 6 7'!$E78)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D78,'superstition_golf Ex 6 7'!$E78)</f>
         <v>3</v>
       </c>
       <c r="G78">
@@ -17795,7 +17800,7 @@
       <c r="K78"/>
       <c r="L78"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>101</v>
       </c>
@@ -17812,7 +17817,7 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D79,'superstition_golf Ex 6 7'!$E79)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D79,'superstition_golf Ex 6 7'!$E79)</f>
         <v>1</v>
       </c>
       <c r="G79">
@@ -17824,7 +17829,7 @@
       <c r="K79"/>
       <c r="L79"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>102</v>
       </c>
@@ -17841,7 +17846,7 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D80,'superstition_golf Ex 6 7'!$E80)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D80,'superstition_golf Ex 6 7'!$E80)</f>
         <v>1.5</v>
       </c>
       <c r="G80">
@@ -17853,7 +17858,7 @@
       <c r="K80"/>
       <c r="L80"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -17870,7 +17875,7 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D81,'superstition_golf Ex 6 7'!$E81)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D81,'superstition_golf Ex 6 7'!$E81)</f>
         <v>2</v>
       </c>
       <c r="G81">
@@ -17882,7 +17887,7 @@
       <c r="K81"/>
       <c r="L81"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>104</v>
       </c>
@@ -17899,7 +17904,7 @@
         <v>1</v>
       </c>
       <c r="F82">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D82,'superstition_golf Ex 6 7'!$E82)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D82,'superstition_golf Ex 6 7'!$E82)</f>
         <v>1</v>
       </c>
       <c r="G82">
@@ -17911,7 +17916,7 @@
       <c r="K82"/>
       <c r="L82"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>105</v>
       </c>
@@ -17928,7 +17933,7 @@
         <v>3</v>
       </c>
       <c r="F83">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D83,'superstition_golf Ex 6 7'!$E83)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D83,'superstition_golf Ex 6 7'!$E83)</f>
         <v>3</v>
       </c>
       <c r="G83">
@@ -17940,7 +17945,7 @@
       <c r="K83"/>
       <c r="L83"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>106</v>
       </c>
@@ -17957,7 +17962,7 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D84,'superstition_golf Ex 6 7'!$E84)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D84,'superstition_golf Ex 6 7'!$E84)</f>
         <v>1</v>
       </c>
       <c r="G84">
@@ -17969,7 +17974,7 @@
       <c r="K84"/>
       <c r="L84"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>107</v>
       </c>
@@ -17986,7 +17991,7 @@
         <v>5</v>
       </c>
       <c r="F85">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D85,'superstition_golf Ex 6 7'!$E85)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D85,'superstition_golf Ex 6 7'!$E85)</f>
         <v>3</v>
       </c>
       <c r="G85">
@@ -17998,7 +18003,7 @@
       <c r="K85"/>
       <c r="L85"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>108</v>
       </c>
@@ -18015,7 +18020,7 @@
         <v>2</v>
       </c>
       <c r="F86">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D86,'superstition_golf Ex 6 7'!$E86)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D86,'superstition_golf Ex 6 7'!$E86)</f>
         <v>2</v>
       </c>
       <c r="G86">
@@ -18027,7 +18032,7 @@
       <c r="K86"/>
       <c r="L86"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>109</v>
       </c>
@@ -18044,7 +18049,7 @@
         <v>2</v>
       </c>
       <c r="F87">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D87,'superstition_golf Ex 6 7'!$E87)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D87,'superstition_golf Ex 6 7'!$E87)</f>
         <v>3</v>
       </c>
       <c r="G87">
@@ -18056,7 +18061,7 @@
       <c r="K87"/>
       <c r="L87"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>110</v>
       </c>
@@ -18073,7 +18078,7 @@
         <v>3</v>
       </c>
       <c r="F88">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D88,'superstition_golf Ex 6 7'!$E88)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D88,'superstition_golf Ex 6 7'!$E88)</f>
         <v>2.5</v>
       </c>
       <c r="G88">
@@ -18085,7 +18090,7 @@
       <c r="K88"/>
       <c r="L88"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>111</v>
       </c>
@@ -18102,7 +18107,7 @@
         <v>3</v>
       </c>
       <c r="F89">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D89,'superstition_golf Ex 6 7'!$E89)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D89,'superstition_golf Ex 6 7'!$E89)</f>
         <v>3</v>
       </c>
       <c r="G89">
@@ -18114,7 +18119,7 @@
       <c r="K89"/>
       <c r="L89"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>112</v>
       </c>
@@ -18131,7 +18136,7 @@
         <v>3</v>
       </c>
       <c r="F90">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D90,'superstition_golf Ex 6 7'!$E90)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D90,'superstition_golf Ex 6 7'!$E90)</f>
         <v>2</v>
       </c>
       <c r="G90">
@@ -18143,7 +18148,7 @@
       <c r="K90"/>
       <c r="L90"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>113</v>
       </c>
@@ -18160,7 +18165,7 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D91,'superstition_golf Ex 6 7'!$E91)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D91,'superstition_golf Ex 6 7'!$E91)</f>
         <v>1.5</v>
       </c>
       <c r="G91">
@@ -18172,7 +18177,7 @@
       <c r="K91"/>
       <c r="L91"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>114</v>
       </c>
@@ -18189,7 +18194,7 @@
         <v>2</v>
       </c>
       <c r="F92">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D92,'superstition_golf Ex 6 7'!$E92)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D92,'superstition_golf Ex 6 7'!$E92)</f>
         <v>2</v>
       </c>
       <c r="G92">
@@ -18201,7 +18206,7 @@
       <c r="K92"/>
       <c r="L92"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>115</v>
       </c>
@@ -18218,7 +18223,7 @@
         <v>3</v>
       </c>
       <c r="F93">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D93,'superstition_golf Ex 6 7'!$E93)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D93,'superstition_golf Ex 6 7'!$E93)</f>
         <v>4</v>
       </c>
       <c r="G93">
@@ -18230,7 +18235,7 @@
       <c r="K93"/>
       <c r="L93"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -18247,7 +18252,7 @@
         <v>3</v>
       </c>
       <c r="F94">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D94,'superstition_golf Ex 6 7'!$E94)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D94,'superstition_golf Ex 6 7'!$E94)</f>
         <v>3.5</v>
       </c>
       <c r="G94">
@@ -18259,7 +18264,7 @@
       <c r="K94"/>
       <c r="L94"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -18276,7 +18281,7 @@
         <v>2</v>
       </c>
       <c r="F95">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D95,'superstition_golf Ex 6 7'!$E95)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D95,'superstition_golf Ex 6 7'!$E95)</f>
         <v>3.5</v>
       </c>
       <c r="G95">
@@ -18288,7 +18293,7 @@
       <c r="K95"/>
       <c r="L95"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>118</v>
       </c>
@@ -18305,7 +18310,7 @@
         <v>3</v>
       </c>
       <c r="F96">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D96,'superstition_golf Ex 6 7'!$E96)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D96,'superstition_golf Ex 6 7'!$E96)</f>
         <v>3</v>
       </c>
       <c r="G96">
@@ -18317,7 +18322,7 @@
       <c r="K96"/>
       <c r="L96"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>119</v>
       </c>
@@ -18334,7 +18339,7 @@
         <v>5</v>
       </c>
       <c r="F97">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D97,'superstition_golf Ex 6 7'!$E97)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D97,'superstition_golf Ex 6 7'!$E97)</f>
         <v>5</v>
       </c>
       <c r="G97">
@@ -18346,7 +18351,7 @@
       <c r="K97"/>
       <c r="L97"/>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>120</v>
       </c>
@@ -18363,7 +18368,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D98,'superstition_golf Ex 6 7'!$E98)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D98,'superstition_golf Ex 6 7'!$E98)</f>
         <v>2</v>
       </c>
       <c r="G98">
@@ -18375,7 +18380,7 @@
       <c r="K98"/>
       <c r="L98"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>121</v>
       </c>
@@ -18392,7 +18397,7 @@
         <v>2</v>
       </c>
       <c r="F99">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D99,'superstition_golf Ex 6 7'!$E99)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D99,'superstition_golf Ex 6 7'!$E99)</f>
         <v>2</v>
       </c>
       <c r="G99">
@@ -18404,7 +18409,7 @@
       <c r="K99"/>
       <c r="L99"/>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>122</v>
       </c>
@@ -18421,7 +18426,7 @@
         <v>3</v>
       </c>
       <c r="F100">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D100,'superstition_golf Ex 6 7'!$E100)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D100,'superstition_golf Ex 6 7'!$E100)</f>
         <v>3.5</v>
       </c>
       <c r="G100">
@@ -18433,7 +18438,7 @@
       <c r="K100"/>
       <c r="L100"/>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>123</v>
       </c>
@@ -18450,7 +18455,7 @@
         <v>4</v>
       </c>
       <c r="F101">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D101,'superstition_golf Ex 6 7'!$E101)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D101,'superstition_golf Ex 6 7'!$E101)</f>
         <v>4</v>
       </c>
       <c r="G101">
@@ -18462,7 +18467,7 @@
       <c r="K101"/>
       <c r="L101"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>124</v>
       </c>
@@ -18479,7 +18484,7 @@
         <v>4</v>
       </c>
       <c r="F102">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D102,'superstition_golf Ex 6 7'!$E102)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D102,'superstition_golf Ex 6 7'!$E102)</f>
         <v>4</v>
       </c>
       <c r="G102">
@@ -18491,7 +18496,7 @@
       <c r="K102"/>
       <c r="L102"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>125</v>
       </c>
@@ -18508,7 +18513,7 @@
         <v>4</v>
       </c>
       <c r="F103">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D103,'superstition_golf Ex 6 7'!$E103)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D103,'superstition_golf Ex 6 7'!$E103)</f>
         <v>4</v>
       </c>
       <c r="G103">
@@ -18520,7 +18525,7 @@
       <c r="K103"/>
       <c r="L103"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -18537,7 +18542,7 @@
         <v>4</v>
       </c>
       <c r="F104">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D104,'superstition_golf Ex 6 7'!$E104)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D104,'superstition_golf Ex 6 7'!$E104)</f>
         <v>4</v>
       </c>
       <c r="G104">
@@ -18549,7 +18554,7 @@
       <c r="K104"/>
       <c r="L104"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>127</v>
       </c>
@@ -18566,7 +18571,7 @@
         <v>2</v>
       </c>
       <c r="F105">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D105,'superstition_golf Ex 6 7'!$E105)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D105,'superstition_golf Ex 6 7'!$E105)</f>
         <v>3</v>
       </c>
       <c r="G105">
@@ -18578,7 +18583,7 @@
       <c r="K105"/>
       <c r="L105"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>128</v>
       </c>
@@ -18595,7 +18600,7 @@
         <v>3</v>
       </c>
       <c r="F106">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D106,'superstition_golf Ex 6 7'!$E106)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D106,'superstition_golf Ex 6 7'!$E106)</f>
         <v>3.5</v>
       </c>
       <c r="G106">
@@ -18607,7 +18612,7 @@
       <c r="K106"/>
       <c r="L106"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>129</v>
       </c>
@@ -18624,7 +18629,7 @@
         <v>2</v>
       </c>
       <c r="F107">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D107,'superstition_golf Ex 6 7'!$E107)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D107,'superstition_golf Ex 6 7'!$E107)</f>
         <v>3.5</v>
       </c>
       <c r="G107">
@@ -18636,7 +18641,7 @@
       <c r="K107"/>
       <c r="L107"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>130</v>
       </c>
@@ -18653,7 +18658,7 @@
         <v>5</v>
       </c>
       <c r="F108">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D108,'superstition_golf Ex 6 7'!$E108)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D108,'superstition_golf Ex 6 7'!$E108)</f>
         <v>5</v>
       </c>
       <c r="G108">
@@ -18665,7 +18670,7 @@
       <c r="K108"/>
       <c r="L108"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>131</v>
       </c>
@@ -18682,7 +18687,7 @@
         <v>5</v>
       </c>
       <c r="F109">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D109,'superstition_golf Ex 6 7'!$E109)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D109,'superstition_golf Ex 6 7'!$E109)</f>
         <v>5</v>
       </c>
       <c r="G109">
@@ -18694,7 +18699,7 @@
       <c r="K109"/>
       <c r="L109"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>132</v>
       </c>
@@ -18711,7 +18716,7 @@
         <v>4</v>
       </c>
       <c r="F110">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D110,'superstition_golf Ex 6 7'!$E110)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D110,'superstition_golf Ex 6 7'!$E110)</f>
         <v>3.5</v>
       </c>
       <c r="G110">
@@ -18723,7 +18728,7 @@
       <c r="K110"/>
       <c r="L110"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>133</v>
       </c>
@@ -18740,7 +18745,7 @@
         <v>4</v>
       </c>
       <c r="F111">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D111,'superstition_golf Ex 6 7'!$E111)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D111,'superstition_golf Ex 6 7'!$E111)</f>
         <v>4</v>
       </c>
       <c r="G111">
@@ -18752,7 +18757,7 @@
       <c r="K111"/>
       <c r="L111"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>134</v>
       </c>
@@ -18769,7 +18774,7 @@
         <v>2</v>
       </c>
       <c r="F112">
-        <f ca="1">AVERAGE('superstition_golf Ex 6 7'!$D112,'superstition_golf Ex 6 7'!$E112)</f>
+        <f>AVERAGE('superstition_golf Ex 6 7'!$D112,'superstition_golf Ex 6 7'!$E112)</f>
         <v>2</v>
       </c>
       <c r="G112">
@@ -18781,7 +18786,7 @@
       <c r="K112"/>
       <c r="L112"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -18802,14 +18807,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -18817,7 +18822,7 @@
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -18834,7 +18839,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2409609</v>
       </c>
@@ -18851,7 +18856,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2442646</v>
       </c>
@@ -18868,7 +18873,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2442662</v>
       </c>
@@ -18885,7 +18890,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2442673</v>
       </c>
@@ -18902,7 +18907,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2442680</v>
       </c>
@@ -18919,7 +18924,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2442692</v>
       </c>
@@ -18936,7 +18941,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2442700</v>
       </c>
@@ -18953,7 +18958,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2442711</v>
       </c>
@@ -18970,7 +18975,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2442718</v>
       </c>
@@ -18987,7 +18992,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2442903</v>
       </c>
@@ -19004,7 +19009,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2442906</v>
       </c>
@@ -19021,7 +19026,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2442910</v>
       </c>
@@ -19038,7 +19043,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2443194</v>
       </c>
@@ -19055,7 +19060,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2443210</v>
       </c>
@@ -19072,7 +19077,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2443211</v>
       </c>
@@ -19089,7 +19094,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2443215</v>
       </c>
@@ -19106,7 +19111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2443407</v>
       </c>
@@ -19123,7 +19128,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2443413</v>
       </c>
@@ -19140,7 +19145,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2443419</v>
       </c>
@@ -19157,7 +19162,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2451795</v>
       </c>
@@ -19174,7 +19179,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2451900</v>
       </c>
@@ -19191,7 +19196,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2451905</v>
       </c>
@@ -19208,7 +19213,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2451911</v>
       </c>
@@ -19222,7 +19227,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2451919</v>
       </c>
@@ -19239,7 +19244,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2451922</v>
       </c>
@@ -19256,7 +19261,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2451925</v>
       </c>
@@ -19273,7 +19278,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2451932</v>
       </c>
@@ -19290,7 +19295,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2453957</v>
       </c>
@@ -19307,7 +19312,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2453961</v>
       </c>
@@ -19324,7 +19329,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2454068</v>
       </c>
@@ -19341,7 +19346,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2454073</v>
       </c>
@@ -19358,7 +19363,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2454074</v>
       </c>
@@ -19375,7 +19380,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2454076</v>
       </c>
@@ -19392,7 +19397,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2454080</v>
       </c>
@@ -19409,7 +19414,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2454084</v>
       </c>
@@ -19426,7 +19431,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2454086</v>
       </c>
@@ -19443,7 +19448,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2454088</v>
       </c>
@@ -19460,7 +19465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2454089</v>
       </c>
@@ -19477,7 +19482,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2454090</v>
       </c>
@@ -19494,7 +19499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2454460</v>
       </c>
@@ -19511,7 +19516,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2454461</v>
       </c>
@@ -19528,7 +19533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2454494</v>
       </c>
@@ -19545,7 +19550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2454600</v>
       </c>
@@ -19562,7 +19567,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2456447</v>
       </c>
@@ -19579,7 +19584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2456450</v>
       </c>
@@ -19596,7 +19601,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2456456</v>
       </c>
@@ -19613,7 +19618,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2456459</v>
       </c>
@@ -19630,7 +19635,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2456460</v>
       </c>
@@ -19647,7 +19652,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2456463</v>
       </c>
@@ -19664,7 +19669,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2456625</v>
       </c>
@@ -19681,7 +19686,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2456811</v>
       </c>
@@ -19698,7 +19703,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2456933</v>
       </c>
@@ -19715,7 +19720,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2456936</v>
       </c>
@@ -19732,7 +19737,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2465685</v>
       </c>
@@ -19749,7 +19754,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2465686</v>
       </c>
@@ -19766,7 +19771,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2465689</v>
       </c>
@@ -19783,7 +19788,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2465799</v>
       </c>
@@ -19800,7 +19805,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2465800</v>
       </c>
@@ -19817,7 +19822,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2465802</v>
       </c>
@@ -19834,7 +19839,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2465803</v>
       </c>
@@ -19851,7 +19856,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2465808</v>
       </c>
@@ -19868,7 +19873,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2467455</v>
       </c>
@@ -19885,7 +19890,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2467466</v>
       </c>
@@ -19902,7 +19907,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2467471</v>
       </c>
@@ -19919,7 +19924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2467477</v>
       </c>
@@ -19936,7 +19941,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2467622</v>
       </c>
@@ -19953,7 +19958,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2467625</v>
       </c>
@@ -19970,7 +19975,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2467630</v>
       </c>
@@ -19987,7 +19992,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2467632</v>
       </c>
@@ -20004,7 +20009,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2467930</v>
       </c>
@@ -20021,7 +20026,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2467935</v>
       </c>
@@ -20038,7 +20043,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2467937</v>
       </c>
@@ -20055,7 +20060,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2468023</v>
       </c>
@@ -20072,7 +20077,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2468025</v>
       </c>
@@ -20089,7 +20094,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2469961</v>
       </c>
@@ -20106,7 +20111,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2470134</v>
       </c>
@@ -20123,7 +20128,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2470138</v>
       </c>
@@ -20140,7 +20145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2470304</v>
       </c>
@@ -20157,7 +20162,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2470307</v>
       </c>
@@ -20174,7 +20179,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2470311</v>
       </c>
@@ -20191,7 +20196,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2477383</v>
       </c>
@@ -20208,7 +20213,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2477497</v>
       </c>
@@ -20225,7 +20230,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2477498</v>
       </c>
@@ -20242,7 +20247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2477501</v>
       </c>
@@ -20259,7 +20264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2477502</v>
       </c>
@@ -20276,7 +20281,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2477504</v>
       </c>
@@ -20293,7 +20298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2477506</v>
       </c>
@@ -20310,7 +20315,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2477509</v>
       </c>
@@ -20327,7 +20332,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2477515</v>
       </c>
@@ -20344,7 +20349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2477516</v>
       </c>
@@ -20373,16 +20378,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" thickBot="1">
+    <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>161</v>
@@ -20391,7 +20396,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16.5" thickBot="1">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>163</v>
       </c>
@@ -20409,7 +20414,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" thickBot="1">
+    <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>165</v>
       </c>
@@ -20448,7 +20453,7 @@
         <v>22.022715545545239</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" thickBot="1">
+    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>166</v>
       </c>
@@ -20463,7 +20468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E6">
         <f>1/B4</f>
         <v>4.7619047619047616E-2</v>
@@ -20481,26 +20486,26 @@
         <v>0.30860669992418382</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="E9" t="e">
-        <f ca="1">_xlfn.T.INV.2T(0.05,(B4+C4-2))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="E11" s="3" t="e">
-        <f ca="1">E9*O3*J6/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G11" s="12" t="e">
-        <f ca="1">E11+E2</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" s="12" t="e">
-        <f ca="1">E2-E11</f>
-        <v>#NAME?</v>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>_xlfn.T.INV.2T(0.05,(B4+C4-2))</f>
+        <v>2.0210753903062737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="3">
+        <f>E9*O3*J6/100</f>
+        <v>0.13735951024163537</v>
+      </c>
+      <c r="G11" s="12">
+        <f>E11+E2</f>
+        <v>-9.2640489758364614E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E13" s="12">
+        <f>E2-E11</f>
+        <v>-0.36735951024163538</v>
       </c>
     </row>
   </sheetData>
@@ -20512,16 +20517,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" thickBot="1">
+    <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>161</v>
@@ -20530,7 +20535,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16.5" thickBot="1">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>167</v>
       </c>
@@ -20548,7 +20553,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" thickBot="1">
+    <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>165</v>
       </c>
@@ -20587,7 +20592,7 @@
         <v>24.083189157584592</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" thickBot="1">
+    <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>166</v>
       </c>
@@ -20602,7 +20607,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E6">
         <f>1/B4</f>
         <v>4.7619047619047616E-2</v>
@@ -20620,26 +20625,26 @@
         <v>0.30860669992418382</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="E9" t="e">
-        <f ca="1">_xlfn.T.INV.2T(0.05,(B4+C4-2))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="E11" s="3" t="e">
-        <f ca="1">E9*O3*J6/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G11" s="12" t="e">
-        <f ca="1">E11+E2</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="E13" s="12" t="e">
-        <f ca="1">E2-E11</f>
-        <v>#NAME?</v>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>_xlfn.T.INV.2T(0.05,(B4+C4-2))</f>
+        <v>2.0210753903062737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="3">
+        <f>E9*O3*J6/100</f>
+        <v>0.15021104281627237</v>
+      </c>
+      <c r="G11" s="12">
+        <f>E11+E2</f>
+        <v>0.11021104281627236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E13" s="12">
+        <f>E2-E11</f>
+        <v>-0.19021104281627238</v>
       </c>
     </row>
   </sheetData>
